--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS152-001 until DPLKKPS152-002 - Kepesertaan - Transaksi - Corporate - Register Corporate.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS152-001 until DPLKKPS152-002 - Kepesertaan - Transaksi - Corporate - Register Corporate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AC5F58-3301-4823-9658-456AABCAB23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D205A9-6670-421D-B2A0-4DAB5EE4CA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKKPS152-001" sheetId="2" r:id="rId1"/>
@@ -1240,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DF7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I2"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2078,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21615457-D7EB-487E-8252-E4BBEAA10214}">
   <dimension ref="A1:DF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CR1" workbookViewId="0">
-      <selection activeCell="CU2" sqref="CU2"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
